--- a/proj1/partc_2.xlsx
+++ b/proj1/partc_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mythilimulani/Projects/SC2001-Projects/proj1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6DA5C-01B0-2B41-8D2D-370EFC2E3811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="19580" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,17 +37,17 @@
     <t>S</t>
   </si>
   <si>
-    <t>Key Best</t>
+    <t>Key Best Case</t>
   </si>
   <si>
-    <t>Time Best</t>
+    <t>Time Best Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +110,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +407,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -444,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -467,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -490,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -513,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -536,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -559,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -582,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -605,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -628,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -651,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -674,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -697,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -720,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -743,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -766,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -789,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -812,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -835,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -858,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -881,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1000</v>
       </c>
@@ -904,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -927,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1000</v>
       </c>
@@ -950,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -973,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1000</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1000</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1000</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1000</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -1203,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1000</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1000</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1000</v>
       </c>
@@ -1318,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1000</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1000</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1000</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1000</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1000</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1000</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1000</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1000</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -1548,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1000</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1000</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1000</v>
       </c>
@@ -1617,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1000</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1000</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1000</v>
       </c>
@@ -1686,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1000</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1000</v>
       </c>
@@ -1732,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1000</v>
       </c>
@@ -1755,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -1778,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1000</v>
       </c>
@@ -1801,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1000</v>
       </c>
@@ -1824,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1000</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1000</v>
       </c>
@@ -1870,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1000</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1000</v>
       </c>
@@ -1916,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1000</v>
       </c>
@@ -1939,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1000</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1000</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1000</v>
       </c>
@@ -2008,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1000</v>
       </c>
@@ -2031,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1000000</v>
       </c>
@@ -2077,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1000000</v>
       </c>
@@ -2100,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1000000</v>
       </c>
@@ -2123,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1000000</v>
       </c>
@@ -2146,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1000000</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1000000</v>
       </c>
@@ -2192,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1000000</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1000000</v>
       </c>
@@ -2238,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1000000</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1000000</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1000000</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1000000</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1000000</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1000000</v>
       </c>
@@ -2376,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1000000</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1000000</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1000000</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1000000</v>
       </c>
@@ -2468,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1000000</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1000000</v>
       </c>
@@ -2514,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1000000</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1000000</v>
       </c>
@@ -2560,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1000000</v>
       </c>
@@ -2583,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1000000</v>
       </c>
@@ -2606,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1000000</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1000000</v>
       </c>
@@ -2652,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1000000</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1000000</v>
       </c>
@@ -2698,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1000000</v>
       </c>
@@ -2721,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1000000</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1000000</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1000000</v>
       </c>
@@ -2790,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1000000</v>
       </c>
@@ -2813,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1000000</v>
       </c>
@@ -2836,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1000000</v>
       </c>
@@ -2859,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1000000</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1000000</v>
       </c>
@@ -2905,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1000000</v>
       </c>
@@ -2928,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1000000</v>
       </c>
@@ -2951,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1000000</v>
       </c>
@@ -2974,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1000000</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1000000</v>
       </c>
@@ -3020,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1000000</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1000000</v>
       </c>
@@ -3066,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1000000</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1000000</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1000000</v>
       </c>
@@ -3135,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1000000</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1000000</v>
       </c>
@@ -3181,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1000000</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1000000</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1000000</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1000000</v>
       </c>
@@ -3273,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1000000</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1000000</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1000000</v>
       </c>
@@ -3342,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1000000</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1000000</v>
       </c>
@@ -3388,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1000000</v>
       </c>
@@ -3411,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1000000</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1000000</v>
       </c>
@@ -3457,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1000000</v>
       </c>
@@ -3480,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1000000</v>
       </c>
@@ -3503,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1000000</v>
       </c>
@@ -3526,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1000000</v>
       </c>
@@ -3549,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1000000</v>
       </c>
@@ -3572,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1000000</v>
       </c>
@@ -3595,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1000000</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1000000</v>
       </c>
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1000000</v>
       </c>
@@ -3664,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>500000</v>
       </c>
@@ -3710,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>500000</v>
       </c>
@@ -3733,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>500000</v>
       </c>
@@ -3756,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>500000</v>
       </c>
@@ -3779,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>500000</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>500000</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>500000</v>
       </c>
@@ -3848,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>500000</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>500000</v>
       </c>
@@ -3894,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>500000</v>
       </c>
@@ -3917,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>500000</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>500000</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>500000</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>500000</v>
       </c>
@@ -4009,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>500000</v>
       </c>
@@ -4032,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>500000</v>
       </c>
@@ -4055,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>500000</v>
       </c>
@@ -4078,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>500000</v>
       </c>
@@ -4101,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>500000</v>
       </c>
@@ -4124,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>500000</v>
       </c>
@@ -4147,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>500000</v>
       </c>
@@ -4170,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>500000</v>
       </c>
@@ -4193,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>500000</v>
       </c>
@@ -4216,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>500000</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>500000</v>
       </c>
@@ -4262,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>500000</v>
       </c>
@@ -4285,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>500000</v>
       </c>
@@ -4308,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>500000</v>
       </c>
@@ -4331,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>500000</v>
       </c>
@@ -4354,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>500000</v>
       </c>
@@ -4377,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>500000</v>
       </c>
@@ -4400,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>500000</v>
       </c>
@@ -4423,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>500000</v>
       </c>
@@ -4446,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>500000</v>
       </c>
@@ -4469,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>500000</v>
       </c>
@@ -4492,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>500000</v>
       </c>
@@ -4515,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>500000</v>
       </c>
@@ -4538,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>500000</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>500000</v>
       </c>
@@ -4584,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>500000</v>
       </c>
@@ -4607,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>500000</v>
       </c>
@@ -4630,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>500000</v>
       </c>
@@ -4653,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>500000</v>
       </c>
@@ -4676,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>500000</v>
       </c>
@@ -4699,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>500000</v>
       </c>
@@ -4722,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>500000</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>500000</v>
       </c>
@@ -4768,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>500000</v>
       </c>
@@ -4791,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>500000</v>
       </c>
@@ -4814,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>500000</v>
       </c>
@@ -4837,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -4860,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1000000</v>
       </c>
@@ -4883,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1000000</v>
       </c>
@@ -4906,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1000000</v>
       </c>
@@ -4929,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1000000</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1000000</v>
       </c>
@@ -4975,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1000000</v>
       </c>
@@ -4998,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1000000</v>
       </c>
@@ -5021,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1000000</v>
       </c>
@@ -5044,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1000000</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1000000</v>
       </c>
@@ -5090,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1000000</v>
       </c>
@@ -5113,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1000000</v>
       </c>
@@ -5136,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1000000</v>
       </c>
@@ -5159,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1000000</v>
       </c>
@@ -5182,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1000000</v>
       </c>
@@ -5205,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1000000</v>
       </c>
@@ -5228,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1000000</v>
       </c>
@@ -5251,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1000000</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1000000</v>
       </c>
@@ -5297,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1000000</v>
       </c>
@@ -5320,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1000000</v>
       </c>
@@ -5343,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1000000</v>
       </c>
@@ -5366,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1000000</v>
       </c>
@@ -5389,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1000000</v>
       </c>
@@ -5412,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1000000</v>
       </c>
@@ -5435,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1000000</v>
       </c>
@@ -5458,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1000000</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1000000</v>
       </c>
@@ -5504,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1000000</v>
       </c>
@@ -5527,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1000000</v>
       </c>
@@ -5550,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1000000</v>
       </c>
@@ -5573,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1000000</v>
       </c>
@@ -5596,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1000000</v>
       </c>
@@ -5619,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1000000</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1000000</v>
       </c>
@@ -5665,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1000000</v>
       </c>
@@ -5688,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1000000</v>
       </c>
@@ -5711,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1000000</v>
       </c>
@@ -5734,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1000000</v>
       </c>
@@ -5757,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1000000</v>
       </c>
@@ -5780,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1000000</v>
       </c>
@@ -5803,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1000000</v>
       </c>
@@ -5826,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1000000</v>
       </c>
@@ -5849,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1000000</v>
       </c>
@@ -5872,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1000000</v>
       </c>
@@ -5895,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5918,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1000000</v>
       </c>
@@ -5941,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1000000</v>
       </c>
@@ -5964,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1000000</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1000000</v>
       </c>
@@ -6010,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1000000</v>
       </c>
@@ -6033,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1000000</v>
       </c>
@@ -6056,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1000000</v>
       </c>
@@ -6079,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1000000</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1000000</v>
       </c>
@@ -6125,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1000000</v>
       </c>
@@ -6148,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1000000</v>
       </c>
@@ -6171,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1000000</v>
       </c>
@@ -6194,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1000000</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1000000</v>
       </c>
@@ -6240,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1000000</v>
       </c>
@@ -6263,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1000000</v>
       </c>
@@ -6286,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1000000</v>
       </c>
@@ -6309,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1000000</v>
       </c>
@@ -6332,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1000000</v>
       </c>
@@ -6355,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1000000</v>
       </c>
@@ -6378,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1000000</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1000000</v>
       </c>
@@ -6424,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1000000</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1000000</v>
       </c>
@@ -6470,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1000000</v>
       </c>
@@ -6493,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1000000</v>
       </c>
@@ -6516,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1000000</v>
       </c>
@@ -6539,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1000000</v>
       </c>
@@ -6562,7 +6580,7 @@
         <v>3683709542</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1000000</v>
       </c>
@@ -6585,7 +6603,7 @@
         <v>3578178667</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1000000</v>
       </c>
@@ -6608,7 +6626,7 @@
         <v>3551550417</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1000000</v>
       </c>
@@ -6631,7 +6649,7 @@
         <v>3498972334</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1000000</v>
       </c>
@@ -6654,7 +6672,7 @@
         <v>3526176625</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1000000</v>
       </c>
@@ -6677,7 +6695,7 @@
         <v>3598983917</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1000000</v>
       </c>
@@ -6700,7 +6718,7 @@
         <v>3515799458</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1000000</v>
       </c>
@@ -6723,7 +6741,7 @@
         <v>3522582584</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1000000</v>
       </c>
@@ -6746,7 +6764,7 @@
         <v>3559439125</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1000000</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>3541920583</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1000000</v>
       </c>
@@ -6792,7 +6810,7 @@
         <v>3512115833</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1000000</v>
       </c>
@@ -6815,7 +6833,7 @@
         <v>3517735833</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1000000</v>
       </c>
@@ -6838,7 +6856,7 @@
         <v>3540348833</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1000000</v>
       </c>
@@ -6861,7 +6879,7 @@
         <v>3518861000</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1000000</v>
       </c>
@@ -6884,7 +6902,7 @@
         <v>3515397208</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1000000</v>
       </c>
@@ -6907,7 +6925,7 @@
         <v>3532085167</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1000000</v>
       </c>
@@ -6930,7 +6948,7 @@
         <v>3528613625</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1000000</v>
       </c>
@@ -6953,7 +6971,7 @@
         <v>3537290666</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1000000</v>
       </c>
@@ -6976,7 +6994,7 @@
         <v>3555833833</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1000000</v>
       </c>
@@ -6999,7 +7017,7 @@
         <v>3543703916</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1000000</v>
       </c>
@@ -7022,7 +7040,7 @@
         <v>3546341292</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1000000</v>
       </c>
@@ -7045,7 +7063,7 @@
         <v>3560467292</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1000000</v>
       </c>
@@ -7068,7 +7086,7 @@
         <v>3553012834</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1000000</v>
       </c>
@@ -7091,7 +7109,7 @@
         <v>3552034125</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1000000</v>
       </c>
@@ -7114,7 +7132,7 @@
         <v>3561987250</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1000000</v>
       </c>
@@ -7137,7 +7155,7 @@
         <v>3555811625</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1000000</v>
       </c>
@@ -7160,7 +7178,7 @@
         <v>3455269500</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1000000</v>
       </c>
@@ -7183,7 +7201,7 @@
         <v>3471591792</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1000000</v>
       </c>
@@ -7206,7 +7224,7 @@
         <v>3357102792</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1000000</v>
       </c>
@@ -7229,7 +7247,7 @@
         <v>3372197625</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1000000</v>
       </c>
@@ -7252,7 +7270,7 @@
         <v>3162516125</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1000000</v>
       </c>
@@ -7275,7 +7293,7 @@
         <v>3163422541</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1000000</v>
       </c>
@@ -7298,7 +7316,7 @@
         <v>3164533708</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1000000</v>
       </c>
@@ -7321,7 +7339,7 @@
         <v>3176042042</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1000000</v>
       </c>
@@ -7344,7 +7362,7 @@
         <v>3159401167</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1000000</v>
       </c>
@@ -7367,7 +7385,7 @@
         <v>3159780208</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0</v>
       </c>
@@ -7390,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1000000</v>
       </c>
@@ -7413,7 +7431,7 @@
         <v>3268653917</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1000000</v>
       </c>
@@ -7436,7 +7454,7 @@
         <v>3479272833</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1000000</v>
       </c>
@@ -7459,7 +7477,7 @@
         <v>4333992375</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1000000</v>
       </c>
@@ -7482,7 +7500,7 @@
         <v>4225240125</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1000000</v>
       </c>
@@ -7505,7 +7523,7 @@
         <v>4140339792</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1000000</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>4087903291</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1000000</v>
       </c>
@@ -7551,7 +7569,7 @@
         <v>4028519584</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1000000</v>
       </c>
@@ -7574,7 +7592,7 @@
         <v>4093944625</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1000000</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>4014993166</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1000000</v>
       </c>
@@ -7620,7 +7638,7 @@
         <v>4016892125</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1000000</v>
       </c>
@@ -7643,7 +7661,7 @@
         <v>4050378500</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1000000</v>
       </c>
@@ -7666,7 +7684,7 @@
         <v>4061273875</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1000000</v>
       </c>
@@ -7689,7 +7707,7 @@
         <v>4043640791</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1000000</v>
       </c>
@@ -7712,7 +7730,7 @@
         <v>4119838375</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1000000</v>
       </c>
@@ -7735,7 +7753,7 @@
         <v>4018378625</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1000000</v>
       </c>
@@ -7758,7 +7776,7 @@
         <v>4009491583</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1000000</v>
       </c>
@@ -7781,7 +7799,7 @@
         <v>4043141125</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1000000</v>
       </c>
@@ -7804,7 +7822,7 @@
         <v>4048788583</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1000000</v>
       </c>
@@ -7827,7 +7845,7 @@
         <v>5288277791</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1000000</v>
       </c>
@@ -7850,7 +7868,7 @@
         <v>4898525208</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1000000</v>
       </c>
@@ -7873,7 +7891,7 @@
         <v>4678599500</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1000000</v>
       </c>
@@ -7896,7 +7914,7 @@
         <v>4359802125</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1000000</v>
       </c>
@@ -7919,7 +7937,7 @@
         <v>3826426625</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1000000</v>
       </c>
@@ -7942,7 +7960,7 @@
         <v>3825811750</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1000000</v>
       </c>
@@ -7965,7 +7983,7 @@
         <v>3826576166</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1000000</v>
       </c>
@@ -7988,7 +8006,7 @@
         <v>4074536416</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1000000</v>
       </c>
@@ -8011,7 +8029,7 @@
         <v>3709544917</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1000000</v>
       </c>
@@ -8034,7 +8052,7 @@
         <v>3617947750</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1000000</v>
       </c>
@@ -8057,7 +8075,7 @@
         <v>3359084083</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1000000</v>
       </c>
@@ -8080,7 +8098,7 @@
         <v>3394940250</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1000000</v>
       </c>
@@ -8103,7 +8121,7 @@
         <v>3096859417</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0</v>
       </c>
@@ -8126,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0</v>
       </c>
@@ -8149,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0</v>
       </c>
@@ -8172,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1000000</v>
       </c>
@@ -8195,7 +8213,7 @@
         <v>5377704084</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1000000</v>
       </c>
@@ -8218,7 +8236,7 @@
         <v>4870858875</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1000000</v>
       </c>
@@ -8241,7 +8259,7 @@
         <v>4636595292</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1000000</v>
       </c>
@@ -8264,7 +8282,7 @@
         <v>4559182333</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1000000</v>
       </c>
@@ -8287,7 +8305,7 @@
         <v>4561559792</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1000000</v>
       </c>
@@ -8310,7 +8328,7 @@
         <v>4581712917</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1000000</v>
       </c>
@@ -8333,7 +8351,7 @@
         <v>4566614583</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1000000</v>
       </c>
@@ -8356,7 +8374,7 @@
         <v>4558609375</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1000000</v>
       </c>
@@ -8379,7 +8397,7 @@
         <v>4557455292</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1000000</v>
       </c>
@@ -8402,7 +8420,7 @@
         <v>4581775375</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1000000</v>
       </c>
@@ -8425,7 +8443,7 @@
         <v>4568200209</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1000000</v>
       </c>
@@ -8448,7 +8466,7 @@
         <v>4558729583</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1000000</v>
       </c>
@@ -8471,7 +8489,7 @@
         <v>4595210667</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1000000</v>
       </c>
@@ -8494,7 +8512,7 @@
         <v>4575287166</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1000000</v>
       </c>
@@ -8517,7 +8535,7 @@
         <v>4447448000</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1000000</v>
       </c>
@@ -8540,7 +8558,7 @@
         <v>4291412333</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1000000</v>
       </c>
@@ -8563,7 +8581,7 @@
         <v>4297859916</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1000000</v>
       </c>
@@ -8586,7 +8604,7 @@
         <v>4036086417</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1000000</v>
       </c>
@@ -8609,7 +8627,7 @@
         <v>4097039167</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1000000</v>
       </c>
@@ -8632,7 +8650,7 @@
         <v>4066309542</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1000000</v>
       </c>
@@ -8655,7 +8673,7 @@
         <v>4084531250</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1000000</v>
       </c>
@@ -8678,7 +8696,7 @@
         <v>4049715250</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1000000</v>
       </c>
@@ -8701,7 +8719,7 @@
         <v>3839369416</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1000000</v>
       </c>
@@ -8724,7 +8742,7 @@
         <v>3858305667</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1000000</v>
       </c>
@@ -8747,7 +8765,7 @@
         <v>3807559958</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1000000</v>
       </c>
@@ -8770,7 +8788,7 @@
         <v>3832537750</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1000000</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>3640148041</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1000000</v>
       </c>
@@ -8816,7 +8834,7 @@
         <v>3562288375</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1000000</v>
       </c>
@@ -8839,7 +8857,7 @@
         <v>3359307667</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1000000</v>
       </c>
@@ -8862,7 +8880,7 @@
         <v>3352444458</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1000000</v>
       </c>
@@ -8885,7 +8903,7 @@
         <v>3249830875</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0</v>
       </c>
@@ -8908,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>100000</v>
       </c>
@@ -8931,7 +8949,7 @@
         <v>439932000</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>100000</v>
       </c>
@@ -8954,7 +8972,7 @@
         <v>403757458</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>100000</v>
       </c>
@@ -8977,7 +8995,7 @@
         <v>391503333</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>100000</v>
       </c>
@@ -9000,7 +9018,7 @@
         <v>379124334</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>100000</v>
       </c>
@@ -9023,7 +9041,7 @@
         <v>400460208</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>100000</v>
       </c>
@@ -9046,7 +9064,7 @@
         <v>366233250</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>100000</v>
       </c>
@@ -9069,7 +9087,7 @@
         <v>340170958</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>100000</v>
       </c>
@@ -9092,7 +9110,7 @@
         <v>338709709</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>100000</v>
       </c>
@@ -9115,7 +9133,7 @@
         <v>334453167</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>100000</v>
       </c>
@@ -9138,7 +9156,7 @@
         <v>335237583</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>300000</v>
       </c>
@@ -9161,7 +9179,7 @@
         <v>1369729083</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>300000</v>
       </c>
@@ -9184,7 +9202,7 @@
         <v>1263590500</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>300000</v>
       </c>
@@ -9207,7 +9225,7 @@
         <v>1265477000</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>300000</v>
       </c>
@@ -9230,7 +9248,7 @@
         <v>1175749208</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>300000</v>
       </c>
@@ -9253,7 +9271,7 @@
         <v>1188252917</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>300000</v>
       </c>
@@ -9276,7 +9294,7 @@
         <v>1178073875</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>300000</v>
       </c>
@@ -9299,7 +9317,7 @@
         <v>1178498917</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>300000</v>
       </c>
@@ -9322,7 +9340,7 @@
         <v>1188715583</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>300000</v>
       </c>
@@ -9345,7 +9363,7 @@
         <v>1195379084</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>300000</v>
       </c>
@@ -9368,7 +9386,7 @@
         <v>1194910125</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>600000</v>
       </c>
@@ -9391,7 +9409,7 @@
         <v>2992902625</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>600000</v>
       </c>
@@ -9414,7 +9432,7 @@
         <v>2744664584</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>600000</v>
       </c>
@@ -9437,7 +9455,7 @@
         <v>2753741167</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>600000</v>
       </c>
@@ -9460,7 +9478,7 @@
         <v>2546091042</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>600000</v>
       </c>
@@ -9483,7 +9501,7 @@
         <v>2570126500</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>600000</v>
       </c>
@@ -9506,7 +9524,7 @@
         <v>2592577458</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>600000</v>
       </c>
@@ -9529,7 +9547,7 @@
         <v>2734648500</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>600000</v>
       </c>
@@ -9552,7 +9570,7 @@
         <v>2573794125</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>600000</v>
       </c>
@@ -9575,7 +9593,7 @@
         <v>2593684167</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>600000</v>
       </c>
@@ -9598,7 +9616,7 @@
         <v>2558017834</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>1000000</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>5248751042</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1000000</v>
       </c>
@@ -9644,7 +9662,7 @@
         <v>4925541333</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1000000</v>
       </c>
@@ -9667,7 +9685,7 @@
         <v>4680430792</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1000000</v>
       </c>
@@ -9690,7 +9708,7 @@
         <v>4571640584</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1000000</v>
       </c>
@@ -9713,7 +9731,7 @@
         <v>4615545000</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1000000</v>
       </c>
@@ -9736,7 +9754,7 @@
         <v>4549432667</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1000000</v>
       </c>
@@ -9759,7 +9777,7 @@
         <v>4584106917</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1000000</v>
       </c>
@@ -9782,7 +9800,7 @@
         <v>4574120417</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1000000</v>
       </c>
@@ -9805,7 +9823,7 @@
         <v>4488753875</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1000000</v>
       </c>
@@ -9828,7 +9846,7 @@
         <v>4296151125</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>300000</v>
       </c>
@@ -9851,7 +9869,7 @@
         <v>1188644250</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>300000</v>
       </c>
@@ -9874,7 +9892,7 @@
         <v>1269736083</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>300000</v>
       </c>
@@ -9897,7 +9915,7 @@
         <v>1235753750</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>300000</v>
       </c>
@@ -9920,7 +9938,7 @@
         <v>1414854750</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>300000</v>
       </c>
@@ -9943,7 +9961,7 @@
         <v>1365801792</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>300000</v>
       </c>
@@ -9966,7 +9984,7 @@
         <v>1319125708</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>300000</v>
       </c>
@@ -9989,7 +10007,7 @@
         <v>1213117292</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>100000</v>
       </c>
@@ -10012,7 +10030,7 @@
         <v>372916875</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>100000</v>
       </c>
@@ -10035,7 +10053,7 @@
         <v>372923541</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>100000</v>
       </c>
@@ -10058,7 +10076,7 @@
         <v>407052500</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>100000</v>
       </c>
@@ -10081,7 +10099,7 @@
         <v>382282375</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>600000</v>
       </c>
@@ -10104,7 +10122,7 @@
         <v>2927598375</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>600000</v>
       </c>
@@ -10127,7 +10145,7 @@
         <v>2783319916</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>600000</v>
       </c>
@@ -10150,7 +10168,7 @@
         <v>2895409792</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>600000</v>
       </c>
@@ -10173,7 +10191,7 @@
         <v>2614649250</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1000000</v>
       </c>
@@ -10196,7 +10214,7 @@
         <v>4680625875</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>1000000</v>
       </c>
@@ -10219,7 +10237,7 @@
         <v>4685171500</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1000000</v>
       </c>
@@ -10242,7 +10260,7 @@
         <v>4675516333</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>1000000</v>
       </c>
